--- a/SensitivityAnalysisSpreadSheets/Holdback Bar Time/HoldbackBarTime10 Aircraft 9_1_+50%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Holdback Bar Time/HoldbackBarTime10 Aircraft 9_1_+50%.xlsx
@@ -76113,6 +76113,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>13.25183333333333</v>
+      </c>
       <c r="C2" t="n">
         <v>438.0694444444445</v>
       </c>
@@ -76168,6 +76171,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>13.85383333333333</v>
+      </c>
       <c r="C3" t="n">
         <v>450.8366666666666</v>
       </c>
@@ -76223,6 +76229,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>13.95633333333333</v>
+      </c>
       <c r="C4" t="n">
         <v>467.2027777777778</v>
       </c>
@@ -76278,6 +76287,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>14.14116666666667</v>
+      </c>
       <c r="C5" t="n">
         <v>439.6522222222222</v>
       </c>
@@ -76333,6 +76345,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>13.873</v>
+      </c>
       <c r="C6" t="n">
         <v>478.2638888888889</v>
       </c>
@@ -76388,6 +76403,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>13.1885</v>
+      </c>
       <c r="C7" t="n">
         <v>451.5566666666667</v>
       </c>
@@ -76443,6 +76461,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>13.76316666666667</v>
+      </c>
       <c r="C8" t="n">
         <v>444.0627777777778</v>
       </c>
@@ -76498,6 +76519,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>14.64116666666667</v>
+      </c>
       <c r="C9" t="n">
         <v>442.7388888888889</v>
       </c>
@@ -76553,6 +76577,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>14.06316666666667</v>
+      </c>
       <c r="C10" t="n">
         <v>482.4066666666667</v>
       </c>
@@ -76608,6 +76635,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>13.197</v>
+      </c>
       <c r="C11" t="n">
         <v>452.3572222222222</v>
       </c>
@@ -76663,6 +76693,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>12.53083333333333</v>
+      </c>
       <c r="C12" t="n">
         <v>474.2772222222222</v>
       </c>
@@ -76718,6 +76751,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>13.265</v>
+      </c>
       <c r="C13" t="n">
         <v>420.5650000000001</v>
       </c>
@@ -76773,6 +76809,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>13.03683333333333</v>
+      </c>
       <c r="C14" t="n">
         <v>443.7594444444445</v>
       </c>
@@ -76828,6 +76867,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>15.35983333333333</v>
+      </c>
       <c r="C15" t="n">
         <v>455.161111111111</v>
       </c>
@@ -76883,6 +76925,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>14.9695</v>
+      </c>
       <c r="C16" t="n">
         <v>483.1188888888889</v>
       </c>
@@ -76938,6 +76983,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>14.113</v>
+      </c>
       <c r="C17" t="n">
         <v>468.7022222222222</v>
       </c>
@@ -76993,6 +77041,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>14.22616666666667</v>
+      </c>
       <c r="C18" t="n">
         <v>455.1666666666666</v>
       </c>
@@ -77048,6 +77099,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>14.97133333333333</v>
+      </c>
       <c r="C19" t="n">
         <v>477.5638888888889</v>
       </c>
@@ -77103,6 +77157,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>14.4055</v>
+      </c>
       <c r="C20" t="n">
         <v>463.0561111111111</v>
       </c>
@@ -77158,6 +77215,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>14.45183333333333</v>
+      </c>
       <c r="C21" t="n">
         <v>478.62</v>
       </c>
@@ -77213,6 +77273,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>13.68733333333333</v>
+      </c>
       <c r="C22" t="n">
         <v>451.7227777777778</v>
       </c>
@@ -77268,6 +77331,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>14.0375</v>
+      </c>
       <c r="C23" t="n">
         <v>467.0744444444445</v>
       </c>
@@ -77323,6 +77389,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>13.814</v>
+      </c>
       <c r="C24" t="n">
         <v>453.3016666666666</v>
       </c>
@@ -77378,6 +77447,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>14.47266666666667</v>
+      </c>
       <c r="C25" t="n">
         <v>441.9316666666667</v>
       </c>
@@ -77433,6 +77505,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>14.691</v>
+      </c>
       <c r="C26" t="n">
         <v>470.0705555555555</v>
       </c>
@@ -77488,6 +77563,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>14.29366666666667</v>
+      </c>
       <c r="C27" t="n">
         <v>481.3305555555555</v>
       </c>
@@ -77543,6 +77621,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>13.01766666666667</v>
+      </c>
       <c r="C28" t="n">
         <v>472.0377777777778</v>
       </c>
@@ -77598,6 +77679,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>12.61883333333333</v>
+      </c>
       <c r="C29" t="n">
         <v>463.7422222222223</v>
       </c>
@@ -77653,6 +77737,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>14.55433333333333</v>
+      </c>
       <c r="C30" t="n">
         <v>459.1283333333333</v>
       </c>
@@ -77707,6 +77794,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>12.91816666666667</v>
       </c>
       <c r="C31" t="n">
         <v>444.1183333333333</v>
